--- a/data/raw/iso_mapping_filled.xlsx
+++ b/data/raw/iso_mapping_filled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siebert\Documents\Projekte\csink\landCSinkWealth\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3020D-0C2D-4616-9C78-484DB91F0D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2DA3B-7376-4AA6-8766-B55E2B93E6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E1E8131B-A64E-4CFC-B9A2-A0CD8E57C25C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1E8131B-A64E-4CFC-B9A2-A0CD8E57C25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="483">
   <si>
     <t>country</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>Bonaire, Saint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>sovereign_country</t>
   </si>
 </sst>
 </file>
@@ -1860,18 +1863,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A94B5A-4FFB-4864-8801-55561CDE887D}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1882,10 +1886,13 @@
         <v>247</v>
       </c>
       <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1895,11 +1902,14 @@
       <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1910,11 +1920,14 @@
         <f>B3</f>
         <v>AFG</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1925,11 +1938,14 @@
         <f>B4</f>
         <v>AGO</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -1939,11 +1955,14 @@
       <c r="C5" t="s">
         <v>254</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -1953,11 +1972,14 @@
       <c r="C6" t="s">
         <v>255</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1968,11 +1990,14 @@
         <f t="shared" ref="C7:C12" si="0">B7</f>
         <v>ALB</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1983,11 +2008,14 @@
         <f t="shared" si="0"/>
         <v>AND</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -1998,11 +2026,14 @@
         <f t="shared" si="0"/>
         <v>ARE</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2013,11 +2044,14 @@
         <f t="shared" si="0"/>
         <v>ARG</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2028,11 +2062,14 @@
         <f t="shared" si="0"/>
         <v>ARM</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -2043,11 +2080,14 @@
         <f t="shared" si="0"/>
         <v>ATA</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -2057,11 +2097,14 @@
       <c r="C13" t="s">
         <v>251</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2072,11 +2115,14 @@
         <f>B14</f>
         <v>ATG</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2087,11 +2133,14 @@
         <f>B15</f>
         <v>AUS</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2102,11 +2151,14 @@
         <f>B16</f>
         <v>AUT</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2117,11 +2169,14 @@
         <f>B17</f>
         <v>AZE</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>244</v>
       </c>
@@ -2131,11 +2186,14 @@
       <c r="C18" t="s">
         <v>250</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2146,11 +2204,14 @@
         <f>B19</f>
         <v>BDI</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2161,11 +2222,14 @@
         <f>B20</f>
         <v>BEL</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2176,11 +2240,14 @@
         <f>B21</f>
         <v>BEN</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>481</v>
       </c>
@@ -2190,11 +2257,14 @@
       <c r="C22" t="s">
         <v>253</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2205,11 +2275,14 @@
         <f t="shared" ref="C23:C32" si="1">B23</f>
         <v>BFA</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2220,11 +2293,14 @@
         <f t="shared" si="1"/>
         <v>BGD</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2235,11 +2311,14 @@
         <f t="shared" si="1"/>
         <v>BGR</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2250,11 +2329,14 @@
         <f t="shared" si="1"/>
         <v>BHR</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2265,11 +2347,14 @@
         <f t="shared" si="1"/>
         <v>BHS</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -2280,11 +2365,14 @@
         <f t="shared" si="1"/>
         <v>BHS</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2295,11 +2383,14 @@
         <f t="shared" si="1"/>
         <v>BIH</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -2310,11 +2401,14 @@
         <f t="shared" si="1"/>
         <v>BIR</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2325,11 +2419,14 @@
         <f t="shared" si="1"/>
         <v>BLR</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -2340,11 +2437,14 @@
         <f t="shared" si="1"/>
         <v>BLZ</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -2354,11 +2454,14 @@
       <c r="C33" t="s">
         <v>254</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2369,11 +2472,14 @@
         <f t="shared" ref="C34:C58" si="2">B34</f>
         <v>BOL</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2384,11 +2490,14 @@
         <f t="shared" si="2"/>
         <v>BRA</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2399,11 +2508,14 @@
         <f t="shared" si="2"/>
         <v>BRB</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2414,11 +2526,14 @@
         <f t="shared" si="2"/>
         <v>BRN</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -2429,11 +2544,14 @@
         <f t="shared" si="2"/>
         <v>BRN</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2444,11 +2562,14 @@
         <f t="shared" si="2"/>
         <v>BTN</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2459,11 +2580,14 @@
         <f t="shared" si="2"/>
         <v>BWA</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2474,11 +2598,14 @@
         <f t="shared" si="2"/>
         <v>CAF</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2489,11 +2616,14 @@
         <f t="shared" si="2"/>
         <v>CAN</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -2504,11 +2634,14 @@
         <f t="shared" si="2"/>
         <v>CHE</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2519,11 +2652,14 @@
         <f t="shared" si="2"/>
         <v>CHL</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2534,11 +2670,14 @@
         <f t="shared" si="2"/>
         <v>CHN</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2549,11 +2688,14 @@
         <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -2564,11 +2706,14 @@
         <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2579,11 +2724,14 @@
         <f t="shared" si="2"/>
         <v>CMR</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2594,11 +2742,14 @@
         <f t="shared" si="2"/>
         <v>COD</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -2609,11 +2760,14 @@
         <f t="shared" si="2"/>
         <v>COG</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -2624,11 +2778,14 @@
         <f t="shared" si="2"/>
         <v>COG</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -2639,11 +2796,14 @@
         <f t="shared" si="2"/>
         <v>COK</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2654,11 +2814,14 @@
         <f t="shared" si="2"/>
         <v>COL</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2669,11 +2832,14 @@
         <f t="shared" si="2"/>
         <v>COM</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -2684,11 +2850,14 @@
         <f t="shared" si="2"/>
         <v>CPV</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -2699,11 +2868,14 @@
         <f t="shared" si="2"/>
         <v>CPV</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -2714,11 +2886,14 @@
         <f t="shared" si="2"/>
         <v>CRI</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -2729,11 +2904,14 @@
         <f t="shared" si="2"/>
         <v>CUB</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -2743,11 +2921,14 @@
       <c r="C59" t="s">
         <v>253</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -2757,11 +2938,14 @@
       <c r="C60" t="s">
         <v>254</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -2771,11 +2955,14 @@
       <c r="C61" t="s">
         <v>249</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -2786,11 +2973,14 @@
         <f t="shared" ref="C62:C78" si="3">B62</f>
         <v>CYP</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2801,11 +2991,14 @@
         <f t="shared" si="3"/>
         <v>CZE</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2816,11 +3009,14 @@
         <f t="shared" si="3"/>
         <v>DEU</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2831,11 +3027,14 @@
         <f t="shared" si="3"/>
         <v>DJI</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -2846,11 +3045,14 @@
         <f t="shared" si="3"/>
         <v>DMA</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2861,11 +3063,14 @@
         <f t="shared" si="3"/>
         <v>DNK</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2876,11 +3081,14 @@
         <f t="shared" si="3"/>
         <v>DOM</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2891,11 +3099,14 @@
         <f t="shared" si="3"/>
         <v>DZA</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -2906,11 +3117,14 @@
         <f t="shared" si="3"/>
         <v>ECU</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -2921,11 +3135,14 @@
         <f t="shared" si="3"/>
         <v>EGY</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -2936,11 +3153,14 @@
         <f t="shared" si="3"/>
         <v>ERI</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -2951,11 +3171,14 @@
         <f t="shared" si="3"/>
         <v>ESH</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -2966,11 +3189,14 @@
         <f t="shared" si="3"/>
         <v>ESP</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -2981,11 +3207,14 @@
         <f t="shared" si="3"/>
         <v>EST</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -2996,11 +3225,14 @@
         <f t="shared" si="3"/>
         <v>ETH</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -3011,11 +3243,14 @@
         <f t="shared" si="3"/>
         <v>FIN</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -3026,11 +3261,14 @@
         <f t="shared" si="3"/>
         <v>FJI</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -3040,11 +3278,14 @@
       <c r="C79" t="s">
         <v>254</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -3055,11 +3296,14 @@
         <f>B80</f>
         <v>FRA</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -3069,11 +3313,14 @@
       <c r="C81" t="s">
         <v>256</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -3083,11 +3330,14 @@
       <c r="C82" t="s">
         <v>256</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -3098,11 +3348,14 @@
         <f t="shared" ref="C83:C93" si="4">B83</f>
         <v>FSM</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -3113,11 +3366,14 @@
         <f t="shared" si="4"/>
         <v>GAB</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -3128,11 +3384,14 @@
         <f t="shared" si="4"/>
         <v>GBR</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -3143,11 +3402,14 @@
         <f t="shared" si="4"/>
         <v>GEO</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -3158,11 +3420,14 @@
         <f t="shared" si="4"/>
         <v>GHA</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -3173,11 +3438,14 @@
         <f t="shared" si="4"/>
         <v>GIN</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>64</v>
       </c>
@@ -3188,11 +3456,14 @@
         <f t="shared" si="4"/>
         <v>GMB</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -3203,11 +3474,14 @@
         <f t="shared" si="4"/>
         <v>GNB</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>55</v>
       </c>
@@ -3218,11 +3492,14 @@
         <f t="shared" si="4"/>
         <v>GNQ</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -3233,11 +3510,14 @@
         <f t="shared" si="4"/>
         <v>GRC</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -3248,11 +3528,14 @@
         <f t="shared" si="4"/>
         <v>GRD</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -3262,11 +3545,14 @@
       <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3277,11 +3563,14 @@
         <f>B95</f>
         <v>GTM</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -3292,11 +3581,14 @@
         <f>B96</f>
         <v>GUY</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -3306,11 +3598,14 @@
       <c r="C97" t="s">
         <v>257</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -3320,11 +3615,14 @@
       <c r="C98" t="s">
         <v>257</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -3335,11 +3633,14 @@
         <f t="shared" ref="C99:C132" si="5">B99</f>
         <v>HND</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -3350,11 +3651,14 @@
         <f t="shared" si="5"/>
         <v>HRV</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -3365,11 +3669,14 @@
         <f t="shared" si="5"/>
         <v>HTI</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>76</v>
       </c>
@@ -3380,11 +3687,14 @@
         <f t="shared" si="5"/>
         <v>HUN</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -3395,11 +3705,14 @@
         <f t="shared" si="5"/>
         <v>IDN</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -3410,11 +3723,14 @@
         <f t="shared" si="5"/>
         <v>IND</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -3425,11 +3741,14 @@
         <f t="shared" si="5"/>
         <v>IRL</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>80</v>
       </c>
@@ -3440,11 +3759,14 @@
         <f t="shared" si="5"/>
         <v>IRN</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -3455,11 +3777,14 @@
         <f t="shared" si="5"/>
         <v>IRQ</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>77</v>
       </c>
@@ -3470,11 +3795,14 @@
         <f t="shared" si="5"/>
         <v>ISL</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3485,11 +3813,14 @@
         <f t="shared" si="5"/>
         <v>ISR</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -3500,11 +3831,14 @@
         <f t="shared" si="5"/>
         <v>ITA</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -3515,11 +3849,14 @@
         <f t="shared" si="5"/>
         <v>JAM</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -3530,11 +3867,14 @@
         <f t="shared" si="5"/>
         <v>JOR</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -3545,11 +3885,14 @@
         <f t="shared" si="5"/>
         <v>JPN</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -3560,11 +3903,14 @@
         <f t="shared" si="5"/>
         <v>KAZ</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -3575,11 +3921,14 @@
         <f t="shared" si="5"/>
         <v>KEN</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -3590,11 +3939,14 @@
         <f t="shared" si="5"/>
         <v>KGZ</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>92</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -3605,11 +3957,14 @@
         <f t="shared" si="5"/>
         <v>KHM</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -3620,11 +3975,14 @@
         <f t="shared" si="5"/>
         <v>KIR</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -3635,11 +3993,14 @@
         <f t="shared" si="5"/>
         <v>KNA</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>163</v>
       </c>
@@ -3650,11 +4011,14 @@
         <f t="shared" si="5"/>
         <v>KOR</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -3665,11 +4029,14 @@
         <f t="shared" si="5"/>
         <v>KWT</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -3680,11 +4047,14 @@
         <f t="shared" si="5"/>
         <v>LAO</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>95</v>
       </c>
@@ -3695,11 +4065,14 @@
         <f t="shared" si="5"/>
         <v>LBN</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>95</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -3710,11 +4083,14 @@
         <f t="shared" si="5"/>
         <v>LBR</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -3725,11 +4101,14 @@
         <f t="shared" si="5"/>
         <v>LBY</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -3740,11 +4119,14 @@
         <f t="shared" si="5"/>
         <v>LCA</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -3755,11 +4137,14 @@
         <f t="shared" si="5"/>
         <v>LIE</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -3770,11 +4155,14 @@
         <f t="shared" si="5"/>
         <v>LKA</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -3785,11 +4173,14 @@
         <f t="shared" si="5"/>
         <v>LSO</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>100</v>
       </c>
@@ -3800,11 +4191,14 @@
         <f t="shared" si="5"/>
         <v>LTU</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -3815,11 +4209,14 @@
         <f t="shared" si="5"/>
         <v>LUX</v>
       </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -3830,11 +4227,14 @@
         <f t="shared" si="5"/>
         <v>LVA</v>
       </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3844,11 +4244,14 @@
       <c r="C133" t="s">
         <v>257</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>117</v>
       </c>
@@ -3859,11 +4262,14 @@
         <f t="shared" ref="C134:C148" si="6">B134</f>
         <v>MAR</v>
       </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -3874,11 +4280,14 @@
         <f t="shared" si="6"/>
         <v>MCO</v>
       </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>113</v>
       </c>
@@ -3889,11 +4298,14 @@
         <f t="shared" si="6"/>
         <v>MDA</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>102</v>
       </c>
@@ -3904,11 +4316,14 @@
         <f t="shared" si="6"/>
         <v>MDG</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -3919,11 +4334,14 @@
         <f t="shared" si="6"/>
         <v>MDV</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>105</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -3934,11 +4352,14 @@
         <f t="shared" si="6"/>
         <v>MEX</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -3949,11 +4370,14 @@
         <f t="shared" si="6"/>
         <v>MHL</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3964,11 +4388,14 @@
         <f t="shared" si="6"/>
         <v>MKD</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>130</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>106</v>
       </c>
@@ -3979,11 +4406,14 @@
         <f t="shared" si="6"/>
         <v>MLI</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>106</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>107</v>
       </c>
@@ -3994,11 +4424,14 @@
         <f t="shared" si="6"/>
         <v>MLT</v>
       </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>107</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>119</v>
       </c>
@@ -4009,11 +4442,14 @@
         <f t="shared" si="6"/>
         <v>MMR</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -4024,11 +4460,14 @@
         <f t="shared" si="6"/>
         <v>MNE</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>116</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>115</v>
       </c>
@@ -4039,11 +4478,14 @@
         <f t="shared" si="6"/>
         <v>MNG</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>115</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -4054,11 +4496,14 @@
         <f t="shared" si="6"/>
         <v>MOZ</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>109</v>
       </c>
@@ -4069,11 +4514,14 @@
         <f t="shared" si="6"/>
         <v>MRT</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>109</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -4083,11 +4531,14 @@
       <c r="C149" t="s">
         <v>254</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>110</v>
       </c>
@@ -4098,11 +4549,14 @@
         <f>B150</f>
         <v>MUS</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>110</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -4113,11 +4567,14 @@
         <f>B151</f>
         <v>MWI</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -4128,11 +4585,14 @@
         <f>B152</f>
         <v>MYS</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>120</v>
       </c>
@@ -4143,11 +4603,14 @@
         <f>B153</f>
         <v>NAM</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>210</v>
       </c>
@@ -4157,11 +4620,14 @@
       <c r="C154" t="s">
         <v>251</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>126</v>
       </c>
@@ -4172,11 +4638,14 @@
         <f t="shared" ref="C155:C171" si="7">B155</f>
         <v>NER</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>126</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -4187,11 +4656,14 @@
         <f t="shared" si="7"/>
         <v>NGA</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>125</v>
       </c>
@@ -4202,11 +4674,14 @@
         <f t="shared" si="7"/>
         <v>NIC</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>125</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>128</v>
       </c>
@@ -4217,11 +4692,14 @@
         <f t="shared" si="7"/>
         <v>NIU</v>
       </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>123</v>
       </c>
@@ -4232,11 +4710,14 @@
         <f t="shared" si="7"/>
         <v>NLD</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>131</v>
       </c>
@@ -4247,11 +4728,14 @@
         <f t="shared" si="7"/>
         <v>NOR</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -4262,11 +4746,14 @@
         <f t="shared" si="7"/>
         <v>NPL</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>122</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>121</v>
       </c>
@@ -4277,11 +4764,14 @@
         <f t="shared" si="7"/>
         <v>NRU</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>124</v>
       </c>
@@ -4292,11 +4782,14 @@
         <f t="shared" si="7"/>
         <v>NZL</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>124</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -4307,11 +4800,14 @@
         <f t="shared" si="7"/>
         <v>OMN</v>
       </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>132</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -4322,11 +4818,14 @@
         <f t="shared" si="7"/>
         <v>PAK</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>135</v>
       </c>
@@ -4337,11 +4836,14 @@
         <f t="shared" si="7"/>
         <v>PAN</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>135</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>138</v>
       </c>
@@ -4352,11 +4854,14 @@
         <f t="shared" si="7"/>
         <v>PER</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -4367,11 +4872,14 @@
         <f t="shared" si="7"/>
         <v>PHL</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>139</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>134</v>
       </c>
@@ -4382,11 +4890,14 @@
         <f t="shared" si="7"/>
         <v>PLW</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>136</v>
       </c>
@@ -4397,11 +4908,14 @@
         <f t="shared" si="7"/>
         <v>PNG</v>
       </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>136</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>140</v>
       </c>
@@ -4412,11 +4926,14 @@
         <f t="shared" si="7"/>
         <v>POL</v>
       </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>140</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -4426,11 +4943,14 @@
       <c r="C172" t="s">
         <v>184</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="s">
+        <v>233</v>
+      </c>
+      <c r="E172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>129</v>
       </c>
@@ -4441,11 +4961,14 @@
         <f>B173</f>
         <v>PRK</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>129</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>141</v>
       </c>
@@ -4456,11 +4979,14 @@
         <f>B174</f>
         <v>PRT</v>
       </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>141</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -4471,11 +4997,14 @@
         <f>B175</f>
         <v>PRY</v>
       </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>137</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>167</v>
       </c>
@@ -4486,11 +5015,14 @@
         <f>B176</f>
         <v>PSE</v>
       </c>
-      <c r="D176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D176" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>239</v>
       </c>
@@ -4501,11 +5033,14 @@
         <f>B177</f>
         <v>PSE</v>
       </c>
-      <c r="D177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D177" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -4515,11 +5050,14 @@
       <c r="C178" t="s">
         <v>251</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="s">
+        <v>62</v>
+      </c>
+      <c r="E178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>142</v>
       </c>
@@ -4530,11 +5068,14 @@
         <f t="shared" ref="C179:C186" si="8">B179</f>
         <v>QAT</v>
       </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>143</v>
       </c>
@@ -4545,11 +5086,14 @@
         <f t="shared" si="8"/>
         <v>ROU</v>
       </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>143</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -4560,11 +5104,14 @@
         <f t="shared" si="8"/>
         <v>RUS</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>144</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>145</v>
       </c>
@@ -4575,11 +5122,14 @@
         <f t="shared" si="8"/>
         <v>RWA</v>
       </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>145</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>152</v>
       </c>
@@ -4590,11 +5140,14 @@
         <f t="shared" si="8"/>
         <v>SAU</v>
       </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>152</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -4605,11 +5158,14 @@
         <f t="shared" si="8"/>
         <v>SDN</v>
       </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>168</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -4620,11 +5176,14 @@
         <f t="shared" si="8"/>
         <v>SEN</v>
       </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>153</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>157</v>
       </c>
@@ -4635,11 +5194,14 @@
         <f t="shared" si="8"/>
         <v>SGP</v>
       </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>157</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>241</v>
       </c>
@@ -4649,11 +5211,14 @@
       <c r="C187" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>218</v>
       </c>
@@ -4663,11 +5228,14 @@
       <c r="C188" t="s">
         <v>254</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="s">
+        <v>188</v>
+      </c>
+      <c r="E188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -4677,11 +5245,14 @@
       <c r="C189" t="s">
         <v>254</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="s">
+        <v>188</v>
+      </c>
+      <c r="E189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>160</v>
       </c>
@@ -4692,11 +5263,14 @@
         <f t="shared" ref="C190:C195" si="9">B190</f>
         <v>SLB</v>
       </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>160</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>156</v>
       </c>
@@ -4707,11 +5281,14 @@
         <f t="shared" si="9"/>
         <v>SLE</v>
       </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>156</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -4722,11 +5299,14 @@
         <f t="shared" si="9"/>
         <v>SLV</v>
       </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>54</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>150</v>
       </c>
@@ -4737,11 +5317,14 @@
         <f t="shared" si="9"/>
         <v>SMR</v>
       </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>161</v>
       </c>
@@ -4752,11 +5335,14 @@
         <f t="shared" si="9"/>
         <v>SOM</v>
       </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>161</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>228</v>
       </c>
@@ -4767,11 +5353,14 @@
         <f t="shared" si="9"/>
         <v>SOM</v>
       </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>228</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -4781,11 +5370,14 @@
       <c r="C196" t="s">
         <v>251</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -4796,11 +5388,14 @@
         <f t="shared" ref="C197:C207" si="10">B197</f>
         <v>SRB</v>
       </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>154</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>243</v>
       </c>
@@ -4811,11 +5406,14 @@
         <f t="shared" si="10"/>
         <v>SRB</v>
       </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>154</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>164</v>
       </c>
@@ -4826,11 +5424,14 @@
         <f t="shared" si="10"/>
         <v>SSD</v>
       </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>151</v>
       </c>
@@ -4841,11 +5442,14 @@
         <f t="shared" si="10"/>
         <v>STP</v>
       </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>225</v>
       </c>
@@ -4856,11 +5460,14 @@
         <f t="shared" si="10"/>
         <v>STP</v>
       </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -4871,11 +5478,14 @@
         <f t="shared" si="10"/>
         <v>SUR</v>
       </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D202" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>158</v>
       </c>
@@ -4886,11 +5496,14 @@
         <f t="shared" si="10"/>
         <v>SVK</v>
       </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>158</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>159</v>
       </c>
@@ -4901,11 +5514,14 @@
         <f t="shared" si="10"/>
         <v>SVN</v>
       </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D204" t="s">
+        <v>159</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>170</v>
       </c>
@@ -4916,11 +5532,14 @@
         <f t="shared" si="10"/>
         <v>SWE</v>
       </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D205" t="s">
+        <v>170</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -4931,11 +5550,14 @@
         <f t="shared" si="10"/>
         <v>SWZ</v>
       </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D206" t="s">
+        <v>58</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -4946,11 +5568,14 @@
         <f t="shared" si="10"/>
         <v>SWZ</v>
       </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>58</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -4960,11 +5585,14 @@
       <c r="C208" t="s">
         <v>253</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="s">
+        <v>123</v>
+      </c>
+      <c r="E208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>155</v>
       </c>
@@ -4975,11 +5603,14 @@
         <f>B209</f>
         <v>SYC</v>
       </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D209" t="s">
+        <v>155</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>172</v>
       </c>
@@ -4990,11 +5621,14 @@
         <f>B210</f>
         <v>SYR</v>
       </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D210" t="s">
+        <v>172</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -5004,11 +5638,14 @@
       <c r="C211" t="s">
         <v>254</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="s">
+        <v>188</v>
+      </c>
+      <c r="E211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -5019,11 +5656,14 @@
         <f t="shared" ref="C212:C236" si="11">B212</f>
         <v>TCD</v>
       </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>177</v>
       </c>
@@ -5034,11 +5674,14 @@
         <f t="shared" si="11"/>
         <v>TGO</v>
       </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D213" t="s">
+        <v>177</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>175</v>
       </c>
@@ -5049,11 +5692,14 @@
         <f t="shared" si="11"/>
         <v>THA</v>
       </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D214" t="s">
+        <v>175</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>173</v>
       </c>
@@ -5064,11 +5710,14 @@
         <f t="shared" si="11"/>
         <v>TJK</v>
       </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D215" t="s">
+        <v>173</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>181</v>
       </c>
@@ -5079,11 +5728,14 @@
         <f t="shared" si="11"/>
         <v>TKM</v>
       </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D216" t="s">
+        <v>181</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>176</v>
       </c>
@@ -5094,11 +5746,14 @@
         <f t="shared" si="11"/>
         <v>TLS</v>
       </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D217" t="s">
+        <v>223</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -5109,11 +5764,14 @@
         <f t="shared" si="11"/>
         <v>TLS</v>
       </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D218" t="s">
+        <v>223</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>178</v>
       </c>
@@ -5124,11 +5782,14 @@
         <f t="shared" si="11"/>
         <v>TON</v>
       </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D219" t="s">
+        <v>178</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>179</v>
       </c>
@@ -5139,11 +5800,14 @@
         <f t="shared" si="11"/>
         <v>TTO</v>
       </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D220" t="s">
+        <v>179</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>180</v>
       </c>
@@ -5154,11 +5818,14 @@
         <f t="shared" si="11"/>
         <v>TUN</v>
       </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D221" t="s">
+        <v>180</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -5169,11 +5836,14 @@
         <f t="shared" si="11"/>
         <v>TUR</v>
       </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D222" t="s">
+        <v>242</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -5184,11 +5854,14 @@
         <f t="shared" si="11"/>
         <v>TUR</v>
       </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D223" t="s">
+        <v>242</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -5199,11 +5872,14 @@
         <f t="shared" si="11"/>
         <v>TUV</v>
       </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D224" t="s">
+        <v>182</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>214</v>
       </c>
@@ -5214,11 +5890,14 @@
         <f t="shared" si="11"/>
         <v>TWN</v>
       </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>214</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>174</v>
       </c>
@@ -5229,11 +5908,14 @@
         <f t="shared" si="11"/>
         <v>TZA</v>
       </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D226" t="s">
+        <v>174</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>222</v>
       </c>
@@ -5244,11 +5926,14 @@
         <f t="shared" si="11"/>
         <v>TZA</v>
       </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D227" t="s">
+        <v>174</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>185</v>
       </c>
@@ -5259,11 +5944,14 @@
         <f t="shared" si="11"/>
         <v>UGA</v>
       </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D228" t="s">
+        <v>185</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>186</v>
       </c>
@@ -5274,11 +5962,14 @@
         <f t="shared" si="11"/>
         <v>UKR</v>
       </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>186</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>189</v>
       </c>
@@ -5289,11 +5980,14 @@
         <f t="shared" si="11"/>
         <v>URY</v>
       </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D230" t="s">
+        <v>189</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>184</v>
       </c>
@@ -5304,11 +5998,14 @@
         <f t="shared" si="11"/>
         <v>USA</v>
       </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>233</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -5319,11 +6016,14 @@
         <f t="shared" si="11"/>
         <v>USA</v>
       </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D232" t="s">
+        <v>233</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>190</v>
       </c>
@@ -5334,11 +6034,14 @@
         <f t="shared" si="11"/>
         <v>UZB</v>
       </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>190</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>192</v>
       </c>
@@ -5349,11 +6052,14 @@
         <f t="shared" si="11"/>
         <v>VAT</v>
       </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>192</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>148</v>
       </c>
@@ -5364,11 +6070,14 @@
         <f t="shared" si="11"/>
         <v>VCT</v>
       </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D235" t="s">
+        <v>148</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>193</v>
       </c>
@@ -5379,11 +6088,14 @@
         <f t="shared" si="11"/>
         <v>VEN</v>
       </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
+        <v>193</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>201</v>
       </c>
@@ -5393,11 +6105,14 @@
       <c r="C237" t="s">
         <v>254</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="s">
+        <v>188</v>
+      </c>
+      <c r="E237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>231</v>
       </c>
@@ -5407,11 +6122,14 @@
       <c r="C238" t="s">
         <v>184</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="s">
+        <v>233</v>
+      </c>
+      <c r="E238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>194</v>
       </c>
@@ -5422,11 +6140,14 @@
         <f>B239</f>
         <v>VNM</v>
       </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D239" t="s">
+        <v>229</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>229</v>
       </c>
@@ -5437,11 +6158,14 @@
         <f>B240</f>
         <v>VNM</v>
       </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>229</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>191</v>
       </c>
@@ -5452,11 +6176,14 @@
         <f>B241</f>
         <v>VUT</v>
       </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>191</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>216</v>
       </c>
@@ -5466,11 +6193,14 @@
       <c r="C242" t="s">
         <v>251</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="s">
+        <v>62</v>
+      </c>
+      <c r="E242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>149</v>
       </c>
@@ -5481,11 +6211,14 @@
         <f t="shared" ref="C243:C249" si="12">B243</f>
         <v>WSM</v>
       </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D243" t="s">
+        <v>149</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>207</v>
       </c>
@@ -5496,11 +6229,14 @@
         <f t="shared" si="12"/>
         <v>XKX</v>
       </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D244" t="s">
+        <v>207</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>195</v>
       </c>
@@ -5511,11 +6247,14 @@
         <f t="shared" si="12"/>
         <v>YEM</v>
       </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
+        <v>195</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>162</v>
       </c>
@@ -5526,11 +6265,14 @@
         <f t="shared" si="12"/>
         <v>ZAF</v>
       </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
+        <v>162</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>196</v>
       </c>
@@ -5541,11 +6283,14 @@
         <f t="shared" si="12"/>
         <v>ZMB</v>
       </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
+        <v>196</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>197</v>
       </c>
@@ -5556,11 +6301,14 @@
         <f t="shared" si="12"/>
         <v>ZWE</v>
       </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D248" t="s">
+        <v>197</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>479</v>
       </c>
@@ -5571,12 +6319,15 @@
         <f t="shared" si="12"/>
         <v>Total</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="s">
+        <v>479</v>
+      </c>
+      <c r="E249">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D248">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E248">
     <sortCondition ref="B3:B248"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
